--- a/APM files/132543401/132543401 IMPORT 2 VID creation.xlsx
+++ b/APM files/132543401/132543401 IMPORT 2 VID creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/132543401/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D777537-3377-3843-AE03-3F28D7F47E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC5E54-3C04-0C42-BD5E-91A55EA09464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23120" yWindow="11460" windowWidth="23200" windowHeight="14080" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="532">
   <si>
     <t>Expedia ID</t>
   </si>
@@ -1629,6 +1629,9 @@
   </si>
   <si>
     <t>IDR</t>
+  </si>
+  <si>
+    <t>PTHorizonInternusaPersada</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2030,7 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2126,6 +2129,12 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
+      <c r="L2" t="s">
+        <v>531</v>
+      </c>
+      <c r="M2" t="s">
+        <v>531</v>
+      </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
@@ -2164,6 +2173,12 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
+      <c r="L3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M3" t="s">
+        <v>531</v>
+      </c>
       <c r="N3" t="s">
         <v>17</v>
       </c>
@@ -2202,6 +2217,12 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
+      <c r="L4" t="s">
+        <v>531</v>
+      </c>
+      <c r="M4" t="s">
+        <v>531</v>
+      </c>
       <c r="N4" t="s">
         <v>17</v>
       </c>
@@ -2240,6 +2261,12 @@
       <c r="K5" t="s">
         <v>16</v>
       </c>
+      <c r="L5" t="s">
+        <v>531</v>
+      </c>
+      <c r="M5" t="s">
+        <v>531</v>
+      </c>
       <c r="N5" t="s">
         <v>17</v>
       </c>
@@ -2278,6 +2305,12 @@
       <c r="K6" t="s">
         <v>16</v>
       </c>
+      <c r="L6" t="s">
+        <v>531</v>
+      </c>
+      <c r="M6" t="s">
+        <v>531</v>
+      </c>
       <c r="N6" t="s">
         <v>17</v>
       </c>
@@ -2316,6 +2349,12 @@
       <c r="K7" t="s">
         <v>16</v>
       </c>
+      <c r="L7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M7" t="s">
+        <v>531</v>
+      </c>
       <c r="N7" t="s">
         <v>17</v>
       </c>
@@ -2354,6 +2393,12 @@
       <c r="K8" t="s">
         <v>16</v>
       </c>
+      <c r="L8" t="s">
+        <v>531</v>
+      </c>
+      <c r="M8" t="s">
+        <v>531</v>
+      </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
@@ -2392,6 +2437,12 @@
       <c r="K9" t="s">
         <v>16</v>
       </c>
+      <c r="L9" t="s">
+        <v>531</v>
+      </c>
+      <c r="M9" t="s">
+        <v>531</v>
+      </c>
       <c r="N9" t="s">
         <v>17</v>
       </c>
@@ -2430,6 +2481,12 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
+      <c r="L10" t="s">
+        <v>531</v>
+      </c>
+      <c r="M10" t="s">
+        <v>531</v>
+      </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
@@ -2468,6 +2525,12 @@
       <c r="K11" t="s">
         <v>16</v>
       </c>
+      <c r="L11" t="s">
+        <v>531</v>
+      </c>
+      <c r="M11" t="s">
+        <v>531</v>
+      </c>
       <c r="N11" t="s">
         <v>17</v>
       </c>
@@ -2506,6 +2569,12 @@
       <c r="K12" t="s">
         <v>16</v>
       </c>
+      <c r="L12" t="s">
+        <v>531</v>
+      </c>
+      <c r="M12" t="s">
+        <v>531</v>
+      </c>
       <c r="N12" t="s">
         <v>17</v>
       </c>
@@ -2544,6 +2613,12 @@
       <c r="K13" t="s">
         <v>16</v>
       </c>
+      <c r="L13" t="s">
+        <v>531</v>
+      </c>
+      <c r="M13" t="s">
+        <v>531</v>
+      </c>
       <c r="N13" t="s">
         <v>17</v>
       </c>
@@ -2582,6 +2657,12 @@
       <c r="K14" t="s">
         <v>16</v>
       </c>
+      <c r="L14" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" t="s">
+        <v>531</v>
+      </c>
       <c r="N14" t="s">
         <v>17</v>
       </c>
@@ -2620,6 +2701,12 @@
       <c r="K15" t="s">
         <v>16</v>
       </c>
+      <c r="L15" t="s">
+        <v>531</v>
+      </c>
+      <c r="M15" t="s">
+        <v>531</v>
+      </c>
       <c r="N15" t="s">
         <v>17</v>
       </c>
@@ -2658,6 +2745,12 @@
       <c r="K16" t="s">
         <v>16</v>
       </c>
+      <c r="L16" t="s">
+        <v>531</v>
+      </c>
+      <c r="M16" t="s">
+        <v>531</v>
+      </c>
       <c r="N16" t="s">
         <v>17</v>
       </c>
@@ -2696,6 +2789,12 @@
       <c r="K17" t="s">
         <v>16</v>
       </c>
+      <c r="L17" t="s">
+        <v>531</v>
+      </c>
+      <c r="M17" t="s">
+        <v>531</v>
+      </c>
       <c r="N17" t="s">
         <v>17</v>
       </c>
@@ -2734,6 +2833,12 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
+      <c r="L18" t="s">
+        <v>531</v>
+      </c>
+      <c r="M18" t="s">
+        <v>531</v>
+      </c>
       <c r="N18" t="s">
         <v>17</v>
       </c>
@@ -2772,6 +2877,12 @@
       <c r="K19" t="s">
         <v>16</v>
       </c>
+      <c r="L19" t="s">
+        <v>531</v>
+      </c>
+      <c r="M19" t="s">
+        <v>531</v>
+      </c>
       <c r="N19" t="s">
         <v>17</v>
       </c>
@@ -2810,6 +2921,12 @@
       <c r="K20" t="s">
         <v>16</v>
       </c>
+      <c r="L20" t="s">
+        <v>531</v>
+      </c>
+      <c r="M20" t="s">
+        <v>531</v>
+      </c>
       <c r="N20" t="s">
         <v>17</v>
       </c>
@@ -2848,6 +2965,12 @@
       <c r="K21" t="s">
         <v>16</v>
       </c>
+      <c r="L21" t="s">
+        <v>531</v>
+      </c>
+      <c r="M21" t="s">
+        <v>531</v>
+      </c>
       <c r="N21" t="s">
         <v>17</v>
       </c>
@@ -2886,6 +3009,12 @@
       <c r="K22" t="s">
         <v>16</v>
       </c>
+      <c r="L22" t="s">
+        <v>531</v>
+      </c>
+      <c r="M22" t="s">
+        <v>531</v>
+      </c>
       <c r="N22" t="s">
         <v>17</v>
       </c>
@@ -2924,6 +3053,12 @@
       <c r="K23" t="s">
         <v>16</v>
       </c>
+      <c r="L23" t="s">
+        <v>531</v>
+      </c>
+      <c r="M23" t="s">
+        <v>531</v>
+      </c>
       <c r="N23" t="s">
         <v>17</v>
       </c>
@@ -2962,6 +3097,12 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
+      <c r="L24" t="s">
+        <v>531</v>
+      </c>
+      <c r="M24" t="s">
+        <v>531</v>
+      </c>
       <c r="N24" t="s">
         <v>17</v>
       </c>
@@ -3000,6 +3141,12 @@
       <c r="K25" t="s">
         <v>16</v>
       </c>
+      <c r="L25" t="s">
+        <v>531</v>
+      </c>
+      <c r="M25" t="s">
+        <v>531</v>
+      </c>
       <c r="N25" t="s">
         <v>17</v>
       </c>
@@ -3038,6 +3185,12 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
+      <c r="L26" t="s">
+        <v>531</v>
+      </c>
+      <c r="M26" t="s">
+        <v>531</v>
+      </c>
       <c r="N26" t="s">
         <v>17</v>
       </c>
@@ -3076,6 +3229,12 @@
       <c r="K27" t="s">
         <v>16</v>
       </c>
+      <c r="L27" t="s">
+        <v>531</v>
+      </c>
+      <c r="M27" t="s">
+        <v>531</v>
+      </c>
       <c r="N27" t="s">
         <v>17</v>
       </c>
@@ -3114,6 +3273,12 @@
       <c r="K28" t="s">
         <v>16</v>
       </c>
+      <c r="L28" t="s">
+        <v>531</v>
+      </c>
+      <c r="M28" t="s">
+        <v>531</v>
+      </c>
       <c r="N28" t="s">
         <v>17</v>
       </c>
@@ -3152,6 +3317,12 @@
       <c r="K29" t="s">
         <v>16</v>
       </c>
+      <c r="L29" t="s">
+        <v>531</v>
+      </c>
+      <c r="M29" t="s">
+        <v>531</v>
+      </c>
       <c r="N29" t="s">
         <v>17</v>
       </c>
@@ -3190,6 +3361,12 @@
       <c r="K30" t="s">
         <v>16</v>
       </c>
+      <c r="L30" t="s">
+        <v>531</v>
+      </c>
+      <c r="M30" t="s">
+        <v>531</v>
+      </c>
       <c r="N30" t="s">
         <v>17</v>
       </c>
@@ -3228,6 +3405,12 @@
       <c r="K31" t="s">
         <v>16</v>
       </c>
+      <c r="L31" t="s">
+        <v>531</v>
+      </c>
+      <c r="M31" t="s">
+        <v>531</v>
+      </c>
       <c r="N31" t="s">
         <v>17</v>
       </c>
@@ -3266,6 +3449,12 @@
       <c r="K32" t="s">
         <v>16</v>
       </c>
+      <c r="L32" t="s">
+        <v>531</v>
+      </c>
+      <c r="M32" t="s">
+        <v>531</v>
+      </c>
       <c r="N32" t="s">
         <v>17</v>
       </c>
@@ -3304,6 +3493,12 @@
       <c r="K33" t="s">
         <v>16</v>
       </c>
+      <c r="L33" t="s">
+        <v>531</v>
+      </c>
+      <c r="M33" t="s">
+        <v>531</v>
+      </c>
       <c r="N33" t="s">
         <v>17</v>
       </c>
@@ -3342,6 +3537,12 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
+      <c r="L34" t="s">
+        <v>531</v>
+      </c>
+      <c r="M34" t="s">
+        <v>531</v>
+      </c>
       <c r="N34" t="s">
         <v>17</v>
       </c>
@@ -3380,6 +3581,12 @@
       <c r="K35" t="s">
         <v>16</v>
       </c>
+      <c r="L35" t="s">
+        <v>531</v>
+      </c>
+      <c r="M35" t="s">
+        <v>531</v>
+      </c>
       <c r="N35" t="s">
         <v>17</v>
       </c>
@@ -3418,6 +3625,12 @@
       <c r="K36" t="s">
         <v>16</v>
       </c>
+      <c r="L36" t="s">
+        <v>531</v>
+      </c>
+      <c r="M36" t="s">
+        <v>531</v>
+      </c>
       <c r="N36" t="s">
         <v>17</v>
       </c>
@@ -3456,6 +3669,12 @@
       <c r="K37" t="s">
         <v>16</v>
       </c>
+      <c r="L37" t="s">
+        <v>531</v>
+      </c>
+      <c r="M37" t="s">
+        <v>531</v>
+      </c>
       <c r="N37" t="s">
         <v>17</v>
       </c>
@@ -3494,6 +3713,12 @@
       <c r="K38" t="s">
         <v>16</v>
       </c>
+      <c r="L38" t="s">
+        <v>531</v>
+      </c>
+      <c r="M38" t="s">
+        <v>531</v>
+      </c>
       <c r="N38" t="s">
         <v>17</v>
       </c>
@@ -3532,6 +3757,12 @@
       <c r="K39" t="s">
         <v>16</v>
       </c>
+      <c r="L39" t="s">
+        <v>531</v>
+      </c>
+      <c r="M39" t="s">
+        <v>531</v>
+      </c>
       <c r="N39" t="s">
         <v>17</v>
       </c>
@@ -3570,6 +3801,12 @@
       <c r="K40" t="s">
         <v>16</v>
       </c>
+      <c r="L40" t="s">
+        <v>531</v>
+      </c>
+      <c r="M40" t="s">
+        <v>531</v>
+      </c>
       <c r="N40" t="s">
         <v>17</v>
       </c>
@@ -3608,6 +3845,12 @@
       <c r="K41" t="s">
         <v>16</v>
       </c>
+      <c r="L41" t="s">
+        <v>531</v>
+      </c>
+      <c r="M41" t="s">
+        <v>531</v>
+      </c>
       <c r="N41" t="s">
         <v>17</v>
       </c>
@@ -3646,6 +3889,12 @@
       <c r="K42" t="s">
         <v>16</v>
       </c>
+      <c r="L42" t="s">
+        <v>531</v>
+      </c>
+      <c r="M42" t="s">
+        <v>531</v>
+      </c>
       <c r="N42" t="s">
         <v>17</v>
       </c>
@@ -3684,6 +3933,12 @@
       <c r="K43" t="s">
         <v>16</v>
       </c>
+      <c r="L43" t="s">
+        <v>531</v>
+      </c>
+      <c r="M43" t="s">
+        <v>531</v>
+      </c>
       <c r="N43" t="s">
         <v>17</v>
       </c>
@@ -3722,6 +3977,12 @@
       <c r="K44" t="s">
         <v>16</v>
       </c>
+      <c r="L44" t="s">
+        <v>531</v>
+      </c>
+      <c r="M44" t="s">
+        <v>531</v>
+      </c>
       <c r="N44" t="s">
         <v>17</v>
       </c>
@@ -3760,6 +4021,12 @@
       <c r="K45" t="s">
         <v>16</v>
       </c>
+      <c r="L45" t="s">
+        <v>531</v>
+      </c>
+      <c r="M45" t="s">
+        <v>531</v>
+      </c>
       <c r="N45" t="s">
         <v>17</v>
       </c>
@@ -3798,6 +4065,12 @@
       <c r="K46" t="s">
         <v>16</v>
       </c>
+      <c r="L46" t="s">
+        <v>531</v>
+      </c>
+      <c r="M46" t="s">
+        <v>531</v>
+      </c>
       <c r="N46" t="s">
         <v>17</v>
       </c>
@@ -3836,6 +4109,12 @@
       <c r="K47" t="s">
         <v>16</v>
       </c>
+      <c r="L47" t="s">
+        <v>531</v>
+      </c>
+      <c r="M47" t="s">
+        <v>531</v>
+      </c>
       <c r="N47" t="s">
         <v>17</v>
       </c>
@@ -3874,6 +4153,12 @@
       <c r="K48" t="s">
         <v>16</v>
       </c>
+      <c r="L48" t="s">
+        <v>531</v>
+      </c>
+      <c r="M48" t="s">
+        <v>531</v>
+      </c>
       <c r="N48" t="s">
         <v>17</v>
       </c>
@@ -3912,6 +4197,12 @@
       <c r="K49" t="s">
         <v>16</v>
       </c>
+      <c r="L49" t="s">
+        <v>531</v>
+      </c>
+      <c r="M49" t="s">
+        <v>531</v>
+      </c>
       <c r="N49" t="s">
         <v>17</v>
       </c>
@@ -3950,6 +4241,12 @@
       <c r="K50" t="s">
         <v>16</v>
       </c>
+      <c r="L50" t="s">
+        <v>531</v>
+      </c>
+      <c r="M50" t="s">
+        <v>531</v>
+      </c>
       <c r="N50" t="s">
         <v>17</v>
       </c>
@@ -3988,6 +4285,12 @@
       <c r="K51" t="s">
         <v>16</v>
       </c>
+      <c r="L51" t="s">
+        <v>531</v>
+      </c>
+      <c r="M51" t="s">
+        <v>531</v>
+      </c>
       <c r="N51" t="s">
         <v>17</v>
       </c>
@@ -4026,6 +4329,12 @@
       <c r="K52" t="s">
         <v>16</v>
       </c>
+      <c r="L52" t="s">
+        <v>531</v>
+      </c>
+      <c r="M52" t="s">
+        <v>531</v>
+      </c>
       <c r="N52" t="s">
         <v>17</v>
       </c>
@@ -4064,6 +4373,12 @@
       <c r="K53" t="s">
         <v>16</v>
       </c>
+      <c r="L53" t="s">
+        <v>531</v>
+      </c>
+      <c r="M53" t="s">
+        <v>531</v>
+      </c>
       <c r="N53" t="s">
         <v>17</v>
       </c>
@@ -4102,6 +4417,12 @@
       <c r="K54" t="s">
         <v>16</v>
       </c>
+      <c r="L54" t="s">
+        <v>531</v>
+      </c>
+      <c r="M54" t="s">
+        <v>531</v>
+      </c>
       <c r="N54" t="s">
         <v>17</v>
       </c>
@@ -4140,6 +4461,12 @@
       <c r="K55" t="s">
         <v>16</v>
       </c>
+      <c r="L55" t="s">
+        <v>531</v>
+      </c>
+      <c r="M55" t="s">
+        <v>531</v>
+      </c>
       <c r="N55" t="s">
         <v>17</v>
       </c>
@@ -4178,6 +4505,12 @@
       <c r="K56" t="s">
         <v>16</v>
       </c>
+      <c r="L56" t="s">
+        <v>531</v>
+      </c>
+      <c r="M56" t="s">
+        <v>531</v>
+      </c>
       <c r="N56" t="s">
         <v>17</v>
       </c>
@@ -4216,6 +4549,12 @@
       <c r="K57" t="s">
         <v>16</v>
       </c>
+      <c r="L57" t="s">
+        <v>531</v>
+      </c>
+      <c r="M57" t="s">
+        <v>531</v>
+      </c>
       <c r="N57" t="s">
         <v>17</v>
       </c>
@@ -4254,6 +4593,12 @@
       <c r="K58" t="s">
         <v>16</v>
       </c>
+      <c r="L58" t="s">
+        <v>531</v>
+      </c>
+      <c r="M58" t="s">
+        <v>531</v>
+      </c>
       <c r="N58" t="s">
         <v>17</v>
       </c>
@@ -4292,6 +4637,12 @@
       <c r="K59" t="s">
         <v>16</v>
       </c>
+      <c r="L59" t="s">
+        <v>531</v>
+      </c>
+      <c r="M59" t="s">
+        <v>531</v>
+      </c>
       <c r="N59" t="s">
         <v>17</v>
       </c>
@@ -4330,6 +4681,12 @@
       <c r="K60" t="s">
         <v>16</v>
       </c>
+      <c r="L60" t="s">
+        <v>531</v>
+      </c>
+      <c r="M60" t="s">
+        <v>531</v>
+      </c>
       <c r="N60" t="s">
         <v>17</v>
       </c>
@@ -4368,6 +4725,12 @@
       <c r="K61" t="s">
         <v>16</v>
       </c>
+      <c r="L61" t="s">
+        <v>531</v>
+      </c>
+      <c r="M61" t="s">
+        <v>531</v>
+      </c>
       <c r="N61" t="s">
         <v>17</v>
       </c>
@@ -4406,6 +4769,12 @@
       <c r="K62" t="s">
         <v>16</v>
       </c>
+      <c r="L62" t="s">
+        <v>531</v>
+      </c>
+      <c r="M62" t="s">
+        <v>531</v>
+      </c>
       <c r="N62" t="s">
         <v>17</v>
       </c>
@@ -4444,6 +4813,12 @@
       <c r="K63" t="s">
         <v>16</v>
       </c>
+      <c r="L63" t="s">
+        <v>531</v>
+      </c>
+      <c r="M63" t="s">
+        <v>531</v>
+      </c>
       <c r="N63" t="s">
         <v>17</v>
       </c>
@@ -4482,6 +4857,12 @@
       <c r="K64" t="s">
         <v>16</v>
       </c>
+      <c r="L64" t="s">
+        <v>531</v>
+      </c>
+      <c r="M64" t="s">
+        <v>531</v>
+      </c>
       <c r="N64" t="s">
         <v>17</v>
       </c>
@@ -4520,6 +4901,12 @@
       <c r="K65" t="s">
         <v>16</v>
       </c>
+      <c r="L65" t="s">
+        <v>531</v>
+      </c>
+      <c r="M65" t="s">
+        <v>531</v>
+      </c>
       <c r="N65" t="s">
         <v>17</v>
       </c>
@@ -4558,6 +4945,12 @@
       <c r="K66" t="s">
         <v>16</v>
       </c>
+      <c r="L66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="s">
+        <v>531</v>
+      </c>
       <c r="N66" t="s">
         <v>17</v>
       </c>
@@ -4596,6 +4989,12 @@
       <c r="K67" t="s">
         <v>16</v>
       </c>
+      <c r="L67" t="s">
+        <v>531</v>
+      </c>
+      <c r="M67" t="s">
+        <v>531</v>
+      </c>
       <c r="N67" t="s">
         <v>17</v>
       </c>
@@ -4634,6 +5033,12 @@
       <c r="K68" t="s">
         <v>16</v>
       </c>
+      <c r="L68" t="s">
+        <v>531</v>
+      </c>
+      <c r="M68" t="s">
+        <v>531</v>
+      </c>
       <c r="N68" t="s">
         <v>17</v>
       </c>
@@ -4672,6 +5077,12 @@
       <c r="K69" t="s">
         <v>16</v>
       </c>
+      <c r="L69" t="s">
+        <v>531</v>
+      </c>
+      <c r="M69" t="s">
+        <v>531</v>
+      </c>
       <c r="N69" t="s">
         <v>17</v>
       </c>
@@ -4710,6 +5121,12 @@
       <c r="K70" t="s">
         <v>16</v>
       </c>
+      <c r="L70" t="s">
+        <v>531</v>
+      </c>
+      <c r="M70" t="s">
+        <v>531</v>
+      </c>
       <c r="N70" t="s">
         <v>17</v>
       </c>
@@ -4748,6 +5165,12 @@
       <c r="K71" t="s">
         <v>16</v>
       </c>
+      <c r="L71" t="s">
+        <v>531</v>
+      </c>
+      <c r="M71" t="s">
+        <v>531</v>
+      </c>
       <c r="N71" t="s">
         <v>17</v>
       </c>
@@ -4786,6 +5209,12 @@
       <c r="K72" t="s">
         <v>16</v>
       </c>
+      <c r="L72" t="s">
+        <v>531</v>
+      </c>
+      <c r="M72" t="s">
+        <v>531</v>
+      </c>
       <c r="N72" t="s">
         <v>17</v>
       </c>
@@ -4824,6 +5253,12 @@
       <c r="K73" t="s">
         <v>16</v>
       </c>
+      <c r="L73" t="s">
+        <v>531</v>
+      </c>
+      <c r="M73" t="s">
+        <v>531</v>
+      </c>
       <c r="N73" t="s">
         <v>17</v>
       </c>
@@ -4862,6 +5297,12 @@
       <c r="K74" t="s">
         <v>16</v>
       </c>
+      <c r="L74" t="s">
+        <v>531</v>
+      </c>
+      <c r="M74" t="s">
+        <v>531</v>
+      </c>
       <c r="N74" t="s">
         <v>17</v>
       </c>
@@ -4900,6 +5341,12 @@
       <c r="K75" t="s">
         <v>16</v>
       </c>
+      <c r="L75" t="s">
+        <v>531</v>
+      </c>
+      <c r="M75" t="s">
+        <v>531</v>
+      </c>
       <c r="N75" t="s">
         <v>17</v>
       </c>
@@ -4938,6 +5385,12 @@
       <c r="K76" t="s">
         <v>16</v>
       </c>
+      <c r="L76" t="s">
+        <v>531</v>
+      </c>
+      <c r="M76" t="s">
+        <v>531</v>
+      </c>
       <c r="N76" t="s">
         <v>17</v>
       </c>
@@ -4976,6 +5429,12 @@
       <c r="K77" t="s">
         <v>16</v>
       </c>
+      <c r="L77" t="s">
+        <v>531</v>
+      </c>
+      <c r="M77" t="s">
+        <v>531</v>
+      </c>
       <c r="N77" t="s">
         <v>17</v>
       </c>
@@ -5014,6 +5473,12 @@
       <c r="K78" t="s">
         <v>16</v>
       </c>
+      <c r="L78" t="s">
+        <v>531</v>
+      </c>
+      <c r="M78" t="s">
+        <v>531</v>
+      </c>
       <c r="N78" t="s">
         <v>17</v>
       </c>
@@ -5052,6 +5517,12 @@
       <c r="K79" t="s">
         <v>16</v>
       </c>
+      <c r="L79" t="s">
+        <v>531</v>
+      </c>
+      <c r="M79" t="s">
+        <v>531</v>
+      </c>
       <c r="N79" t="s">
         <v>17</v>
       </c>
@@ -5090,6 +5561,12 @@
       <c r="K80" t="s">
         <v>16</v>
       </c>
+      <c r="L80" t="s">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s">
+        <v>531</v>
+      </c>
       <c r="N80" t="s">
         <v>17</v>
       </c>
@@ -5128,6 +5605,12 @@
       <c r="K81" t="s">
         <v>16</v>
       </c>
+      <c r="L81" t="s">
+        <v>531</v>
+      </c>
+      <c r="M81" t="s">
+        <v>531</v>
+      </c>
       <c r="N81" t="s">
         <v>17</v>
       </c>
@@ -5166,6 +5649,12 @@
       <c r="K82" t="s">
         <v>16</v>
       </c>
+      <c r="L82" t="s">
+        <v>531</v>
+      </c>
+      <c r="M82" t="s">
+        <v>531</v>
+      </c>
       <c r="N82" t="s">
         <v>17</v>
       </c>
@@ -5204,6 +5693,12 @@
       <c r="K83" t="s">
         <v>16</v>
       </c>
+      <c r="L83" t="s">
+        <v>531</v>
+      </c>
+      <c r="M83" t="s">
+        <v>531</v>
+      </c>
       <c r="N83" t="s">
         <v>17</v>
       </c>
@@ -5242,6 +5737,12 @@
       <c r="K84" t="s">
         <v>16</v>
       </c>
+      <c r="L84" t="s">
+        <v>531</v>
+      </c>
+      <c r="M84" t="s">
+        <v>531</v>
+      </c>
       <c r="N84" t="s">
         <v>17</v>
       </c>
@@ -5280,6 +5781,12 @@
       <c r="K85" t="s">
         <v>16</v>
       </c>
+      <c r="L85" t="s">
+        <v>531</v>
+      </c>
+      <c r="M85" t="s">
+        <v>531</v>
+      </c>
       <c r="N85" t="s">
         <v>17</v>
       </c>
@@ -5318,6 +5825,12 @@
       <c r="K86" t="s">
         <v>16</v>
       </c>
+      <c r="L86" t="s">
+        <v>531</v>
+      </c>
+      <c r="M86" t="s">
+        <v>531</v>
+      </c>
       <c r="N86" t="s">
         <v>17</v>
       </c>
@@ -5356,6 +5869,12 @@
       <c r="K87" t="s">
         <v>16</v>
       </c>
+      <c r="L87" t="s">
+        <v>531</v>
+      </c>
+      <c r="M87" t="s">
+        <v>531</v>
+      </c>
       <c r="N87" t="s">
         <v>17</v>
       </c>
@@ -5394,6 +5913,12 @@
       <c r="K88" t="s">
         <v>16</v>
       </c>
+      <c r="L88" t="s">
+        <v>531</v>
+      </c>
+      <c r="M88" t="s">
+        <v>531</v>
+      </c>
       <c r="N88" t="s">
         <v>17</v>
       </c>
@@ -5432,6 +5957,12 @@
       <c r="K89" t="s">
         <v>16</v>
       </c>
+      <c r="L89" t="s">
+        <v>531</v>
+      </c>
+      <c r="M89" t="s">
+        <v>531</v>
+      </c>
       <c r="N89" t="s">
         <v>17</v>
       </c>
@@ -5470,6 +6001,12 @@
       <c r="K90" t="s">
         <v>16</v>
       </c>
+      <c r="L90" t="s">
+        <v>531</v>
+      </c>
+      <c r="M90" t="s">
+        <v>531</v>
+      </c>
       <c r="N90" t="s">
         <v>17</v>
       </c>
@@ -5508,6 +6045,12 @@
       <c r="K91" t="s">
         <v>16</v>
       </c>
+      <c r="L91" t="s">
+        <v>531</v>
+      </c>
+      <c r="M91" t="s">
+        <v>531</v>
+      </c>
       <c r="N91" t="s">
         <v>17</v>
       </c>
@@ -5546,6 +6089,12 @@
       <c r="K92" t="s">
         <v>16</v>
       </c>
+      <c r="L92" t="s">
+        <v>531</v>
+      </c>
+      <c r="M92" t="s">
+        <v>531</v>
+      </c>
       <c r="N92" t="s">
         <v>17</v>
       </c>
@@ -5584,6 +6133,12 @@
       <c r="K93" t="s">
         <v>16</v>
       </c>
+      <c r="L93" t="s">
+        <v>531</v>
+      </c>
+      <c r="M93" t="s">
+        <v>531</v>
+      </c>
       <c r="N93" t="s">
         <v>17</v>
       </c>
@@ -5622,6 +6177,12 @@
       <c r="K94" t="s">
         <v>16</v>
       </c>
+      <c r="L94" t="s">
+        <v>531</v>
+      </c>
+      <c r="M94" t="s">
+        <v>531</v>
+      </c>
       <c r="N94" t="s">
         <v>17</v>
       </c>
@@ -5660,6 +6221,12 @@
       <c r="K95" t="s">
         <v>16</v>
       </c>
+      <c r="L95" t="s">
+        <v>531</v>
+      </c>
+      <c r="M95" t="s">
+        <v>531</v>
+      </c>
       <c r="N95" t="s">
         <v>17</v>
       </c>
@@ -5698,6 +6265,12 @@
       <c r="K96" t="s">
         <v>16</v>
       </c>
+      <c r="L96" t="s">
+        <v>531</v>
+      </c>
+      <c r="M96" t="s">
+        <v>531</v>
+      </c>
       <c r="N96" t="s">
         <v>17</v>
       </c>
@@ -5736,6 +6309,12 @@
       <c r="K97" t="s">
         <v>16</v>
       </c>
+      <c r="L97" t="s">
+        <v>531</v>
+      </c>
+      <c r="M97" t="s">
+        <v>531</v>
+      </c>
       <c r="N97" t="s">
         <v>17</v>
       </c>
@@ -5774,6 +6353,12 @@
       <c r="K98" t="s">
         <v>16</v>
       </c>
+      <c r="L98" t="s">
+        <v>531</v>
+      </c>
+      <c r="M98" t="s">
+        <v>531</v>
+      </c>
       <c r="N98" t="s">
         <v>17</v>
       </c>
@@ -5812,6 +6397,12 @@
       <c r="K99" t="s">
         <v>16</v>
       </c>
+      <c r="L99" t="s">
+        <v>531</v>
+      </c>
+      <c r="M99" t="s">
+        <v>531</v>
+      </c>
       <c r="N99" t="s">
         <v>17</v>
       </c>
@@ -5850,6 +6441,12 @@
       <c r="K100" t="s">
         <v>16</v>
       </c>
+      <c r="L100" t="s">
+        <v>531</v>
+      </c>
+      <c r="M100" t="s">
+        <v>531</v>
+      </c>
       <c r="N100" t="s">
         <v>17</v>
       </c>
@@ -5888,6 +6485,12 @@
       <c r="K101" t="s">
         <v>16</v>
       </c>
+      <c r="L101" t="s">
+        <v>531</v>
+      </c>
+      <c r="M101" t="s">
+        <v>531</v>
+      </c>
       <c r="N101" t="s">
         <v>17</v>
       </c>
@@ -5926,6 +6529,12 @@
       <c r="K102" t="s">
         <v>16</v>
       </c>
+      <c r="L102" t="s">
+        <v>531</v>
+      </c>
+      <c r="M102" t="s">
+        <v>531</v>
+      </c>
       <c r="N102" t="s">
         <v>17</v>
       </c>
@@ -5964,6 +6573,12 @@
       <c r="K103" t="s">
         <v>16</v>
       </c>
+      <c r="L103" t="s">
+        <v>531</v>
+      </c>
+      <c r="M103" t="s">
+        <v>531</v>
+      </c>
       <c r="N103" t="s">
         <v>17</v>
       </c>
@@ -6002,6 +6617,12 @@
       <c r="K104" t="s">
         <v>16</v>
       </c>
+      <c r="L104" t="s">
+        <v>531</v>
+      </c>
+      <c r="M104" t="s">
+        <v>531</v>
+      </c>
       <c r="N104" t="s">
         <v>17</v>
       </c>
@@ -6040,6 +6661,12 @@
       <c r="K105" t="s">
         <v>16</v>
       </c>
+      <c r="L105" t="s">
+        <v>531</v>
+      </c>
+      <c r="M105" t="s">
+        <v>531</v>
+      </c>
       <c r="N105" t="s">
         <v>17</v>
       </c>
@@ -6078,6 +6705,12 @@
       <c r="K106" t="s">
         <v>16</v>
       </c>
+      <c r="L106" t="s">
+        <v>531</v>
+      </c>
+      <c r="M106" t="s">
+        <v>531</v>
+      </c>
       <c r="N106" t="s">
         <v>17</v>
       </c>
@@ -6116,6 +6749,12 @@
       <c r="K107" t="s">
         <v>16</v>
       </c>
+      <c r="L107" t="s">
+        <v>531</v>
+      </c>
+      <c r="M107" t="s">
+        <v>531</v>
+      </c>
       <c r="N107" t="s">
         <v>17</v>
       </c>
@@ -6154,6 +6793,12 @@
       <c r="K108" t="s">
         <v>16</v>
       </c>
+      <c r="L108" t="s">
+        <v>531</v>
+      </c>
+      <c r="M108" t="s">
+        <v>531</v>
+      </c>
       <c r="N108" t="s">
         <v>17</v>
       </c>
@@ -6192,6 +6837,12 @@
       <c r="K109" t="s">
         <v>16</v>
       </c>
+      <c r="L109" t="s">
+        <v>531</v>
+      </c>
+      <c r="M109" t="s">
+        <v>531</v>
+      </c>
       <c r="N109" t="s">
         <v>17</v>
       </c>
@@ -6230,6 +6881,12 @@
       <c r="K110" t="s">
         <v>16</v>
       </c>
+      <c r="L110" t="s">
+        <v>531</v>
+      </c>
+      <c r="M110" t="s">
+        <v>531</v>
+      </c>
       <c r="N110" t="s">
         <v>17</v>
       </c>
@@ -6268,6 +6925,12 @@
       <c r="K111" t="s">
         <v>16</v>
       </c>
+      <c r="L111" t="s">
+        <v>531</v>
+      </c>
+      <c r="M111" t="s">
+        <v>531</v>
+      </c>
       <c r="N111" t="s">
         <v>17</v>
       </c>
@@ -6306,6 +6969,12 @@
       <c r="K112" t="s">
         <v>16</v>
       </c>
+      <c r="L112" t="s">
+        <v>531</v>
+      </c>
+      <c r="M112" t="s">
+        <v>531</v>
+      </c>
       <c r="N112" t="s">
         <v>17</v>
       </c>
@@ -6344,6 +7013,12 @@
       <c r="K113" t="s">
         <v>16</v>
       </c>
+      <c r="L113" t="s">
+        <v>531</v>
+      </c>
+      <c r="M113" t="s">
+        <v>531</v>
+      </c>
       <c r="N113" t="s">
         <v>17</v>
       </c>
@@ -6382,6 +7057,12 @@
       <c r="K114" t="s">
         <v>16</v>
       </c>
+      <c r="L114" t="s">
+        <v>531</v>
+      </c>
+      <c r="M114" t="s">
+        <v>531</v>
+      </c>
       <c r="N114" t="s">
         <v>17</v>
       </c>
@@ -6420,6 +7101,12 @@
       <c r="K115" t="s">
         <v>16</v>
       </c>
+      <c r="L115" t="s">
+        <v>531</v>
+      </c>
+      <c r="M115" t="s">
+        <v>531</v>
+      </c>
       <c r="N115" t="s">
         <v>17</v>
       </c>
@@ -6458,6 +7145,12 @@
       <c r="K116" t="s">
         <v>16</v>
       </c>
+      <c r="L116" t="s">
+        <v>531</v>
+      </c>
+      <c r="M116" t="s">
+        <v>531</v>
+      </c>
       <c r="N116" t="s">
         <v>17</v>
       </c>
@@ -6496,6 +7189,12 @@
       <c r="K117" t="s">
         <v>16</v>
       </c>
+      <c r="L117" t="s">
+        <v>531</v>
+      </c>
+      <c r="M117" t="s">
+        <v>531</v>
+      </c>
       <c r="N117" t="s">
         <v>17</v>
       </c>
@@ -6534,6 +7233,12 @@
       <c r="K118" t="s">
         <v>16</v>
       </c>
+      <c r="L118" t="s">
+        <v>531</v>
+      </c>
+      <c r="M118" t="s">
+        <v>531</v>
+      </c>
       <c r="N118" t="s">
         <v>17</v>
       </c>
@@ -6572,6 +7277,12 @@
       <c r="K119" t="s">
         <v>16</v>
       </c>
+      <c r="L119" t="s">
+        <v>531</v>
+      </c>
+      <c r="M119" t="s">
+        <v>531</v>
+      </c>
       <c r="N119" t="s">
         <v>17</v>
       </c>
@@ -6610,6 +7321,12 @@
       <c r="K120" t="s">
         <v>16</v>
       </c>
+      <c r="L120" t="s">
+        <v>531</v>
+      </c>
+      <c r="M120" t="s">
+        <v>531</v>
+      </c>
       <c r="N120" t="s">
         <v>17</v>
       </c>
@@ -6648,6 +7365,12 @@
       <c r="K121" t="s">
         <v>16</v>
       </c>
+      <c r="L121" t="s">
+        <v>531</v>
+      </c>
+      <c r="M121" t="s">
+        <v>531</v>
+      </c>
       <c r="N121" t="s">
         <v>17</v>
       </c>
@@ -6686,6 +7409,12 @@
       <c r="K122" t="s">
         <v>16</v>
       </c>
+      <c r="L122" t="s">
+        <v>531</v>
+      </c>
+      <c r="M122" t="s">
+        <v>531</v>
+      </c>
       <c r="N122" t="s">
         <v>17</v>
       </c>
@@ -6724,6 +7453,12 @@
       <c r="K123" t="s">
         <v>16</v>
       </c>
+      <c r="L123" t="s">
+        <v>531</v>
+      </c>
+      <c r="M123" t="s">
+        <v>531</v>
+      </c>
       <c r="N123" t="s">
         <v>17</v>
       </c>
@@ -6762,6 +7497,12 @@
       <c r="K124" t="s">
         <v>16</v>
       </c>
+      <c r="L124" t="s">
+        <v>531</v>
+      </c>
+      <c r="M124" t="s">
+        <v>531</v>
+      </c>
       <c r="N124" t="s">
         <v>17</v>
       </c>
@@ -6800,6 +7541,12 @@
       <c r="K125" t="s">
         <v>16</v>
       </c>
+      <c r="L125" t="s">
+        <v>531</v>
+      </c>
+      <c r="M125" t="s">
+        <v>531</v>
+      </c>
       <c r="N125" t="s">
         <v>17</v>
       </c>
@@ -6838,6 +7585,12 @@
       <c r="K126" t="s">
         <v>16</v>
       </c>
+      <c r="L126" t="s">
+        <v>531</v>
+      </c>
+      <c r="M126" t="s">
+        <v>531</v>
+      </c>
       <c r="N126" t="s">
         <v>17</v>
       </c>
@@ -6876,6 +7629,12 @@
       <c r="K127" t="s">
         <v>16</v>
       </c>
+      <c r="L127" t="s">
+        <v>531</v>
+      </c>
+      <c r="M127" t="s">
+        <v>531</v>
+      </c>
       <c r="N127" t="s">
         <v>17</v>
       </c>
@@ -6914,6 +7673,12 @@
       <c r="K128" t="s">
         <v>16</v>
       </c>
+      <c r="L128" t="s">
+        <v>531</v>
+      </c>
+      <c r="M128" t="s">
+        <v>531</v>
+      </c>
       <c r="N128" t="s">
         <v>17</v>
       </c>
@@ -6952,6 +7717,12 @@
       <c r="K129" t="s">
         <v>16</v>
       </c>
+      <c r="L129" t="s">
+        <v>531</v>
+      </c>
+      <c r="M129" t="s">
+        <v>531</v>
+      </c>
       <c r="N129" t="s">
         <v>17</v>
       </c>
@@ -6990,6 +7761,12 @@
       <c r="K130" t="s">
         <v>16</v>
       </c>
+      <c r="L130" t="s">
+        <v>531</v>
+      </c>
+      <c r="M130" t="s">
+        <v>531</v>
+      </c>
       <c r="N130" t="s">
         <v>17</v>
       </c>
@@ -7028,6 +7805,12 @@
       <c r="K131" t="s">
         <v>16</v>
       </c>
+      <c r="L131" t="s">
+        <v>531</v>
+      </c>
+      <c r="M131" t="s">
+        <v>531</v>
+      </c>
       <c r="N131" t="s">
         <v>17</v>
       </c>
@@ -7066,6 +7849,12 @@
       <c r="K132" t="s">
         <v>16</v>
       </c>
+      <c r="L132" t="s">
+        <v>531</v>
+      </c>
+      <c r="M132" t="s">
+        <v>531</v>
+      </c>
       <c r="N132" t="s">
         <v>17</v>
       </c>
@@ -7104,6 +7893,12 @@
       <c r="K133" t="s">
         <v>16</v>
       </c>
+      <c r="L133" t="s">
+        <v>531</v>
+      </c>
+      <c r="M133" t="s">
+        <v>531</v>
+      </c>
       <c r="N133" t="s">
         <v>17</v>
       </c>
@@ -7142,6 +7937,12 @@
       <c r="K134" t="s">
         <v>16</v>
       </c>
+      <c r="L134" t="s">
+        <v>531</v>
+      </c>
+      <c r="M134" t="s">
+        <v>531</v>
+      </c>
       <c r="N134" t="s">
         <v>17</v>
       </c>
@@ -7180,6 +7981,12 @@
       <c r="K135" t="s">
         <v>16</v>
       </c>
+      <c r="L135" t="s">
+        <v>531</v>
+      </c>
+      <c r="M135" t="s">
+        <v>531</v>
+      </c>
       <c r="N135" t="s">
         <v>17</v>
       </c>
@@ -7218,6 +8025,12 @@
       <c r="K136" t="s">
         <v>16</v>
       </c>
+      <c r="L136" t="s">
+        <v>531</v>
+      </c>
+      <c r="M136" t="s">
+        <v>531</v>
+      </c>
       <c r="N136" t="s">
         <v>17</v>
       </c>
@@ -7256,6 +8069,12 @@
       <c r="K137" t="s">
         <v>16</v>
       </c>
+      <c r="L137" t="s">
+        <v>531</v>
+      </c>
+      <c r="M137" t="s">
+        <v>531</v>
+      </c>
       <c r="N137" t="s">
         <v>17</v>
       </c>
@@ -7294,6 +8113,12 @@
       <c r="K138" t="s">
         <v>16</v>
       </c>
+      <c r="L138" t="s">
+        <v>531</v>
+      </c>
+      <c r="M138" t="s">
+        <v>531</v>
+      </c>
       <c r="N138" t="s">
         <v>17</v>
       </c>
@@ -7332,6 +8157,12 @@
       <c r="K139" t="s">
         <v>16</v>
       </c>
+      <c r="L139" t="s">
+        <v>531</v>
+      </c>
+      <c r="M139" t="s">
+        <v>531</v>
+      </c>
       <c r="N139" t="s">
         <v>17</v>
       </c>
@@ -7370,6 +8201,12 @@
       <c r="K140" t="s">
         <v>16</v>
       </c>
+      <c r="L140" t="s">
+        <v>531</v>
+      </c>
+      <c r="M140" t="s">
+        <v>531</v>
+      </c>
       <c r="N140" t="s">
         <v>17</v>
       </c>
@@ -7408,6 +8245,12 @@
       <c r="K141" t="s">
         <v>16</v>
       </c>
+      <c r="L141" t="s">
+        <v>531</v>
+      </c>
+      <c r="M141" t="s">
+        <v>531</v>
+      </c>
       <c r="N141" t="s">
         <v>17</v>
       </c>
@@ -7446,6 +8289,12 @@
       <c r="K142" t="s">
         <v>16</v>
       </c>
+      <c r="L142" t="s">
+        <v>531</v>
+      </c>
+      <c r="M142" t="s">
+        <v>531</v>
+      </c>
       <c r="N142" t="s">
         <v>17</v>
       </c>
@@ -7483,6 +8332,12 @@
       </c>
       <c r="K143" t="s">
         <v>16</v>
+      </c>
+      <c r="L143" t="s">
+        <v>531</v>
+      </c>
+      <c r="M143" t="s">
+        <v>531</v>
       </c>
       <c r="N143" t="s">
         <v>17</v>
